--- a/medicine/Enfance/Jacqueline_Duché/Jacqueline_Duché.xlsx
+++ b/medicine/Enfance/Jacqueline_Duché/Jacqueline_Duché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacqueline_Duch%C3%A9</t>
+          <t>Jacqueline_Duché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacqueline Duché, née Jacqueline Cranney le 24 décembre 1892 à Paris 9e et morte le 4 mai 1973 à Sarcelles[1], est une femme de lettres, illustratrice de contes pour enfants et décoratrice.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacqueline Duché, née Jacqueline Cranney le 24 décembre 1892 à Paris 9e et morte le 4 mai 1973 à Sarcelles, est une femme de lettres, illustratrice de contes pour enfants et décoratrice.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacqueline_Duch%C3%A9</t>
+          <t>Jacqueline_Duché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacqueline Cranney épouse en 1914 Jacques Duché (1889-1923). La mère de Jacqueline, Marie-Jeanne Franceschi (1864-1944) était sculptrice, fille du sculpteur Jules Franceschi (1825-1893), petite-fille d'Emma Fleury, actrice à la Comédie-Française, elle-même fille du peintre paysagiste François Antoine Léon Fleury (l804-1858) et petite fille d'Antoine-Claude Fleury (1743-1822). L'oncle de Jacqueline Duché était également sculpteur Paul Franceschi (1828-1894).  
 Prédisposée donc aux arts plastiques, Jacqueline Duché fut aussi une femme de lettres, alliée au grand-père de son mari jean-Baptiste Duché 1813-1878, père, en secondes noces, de Lucie Duché 1858-1942, épouse du célèbre éditeur, Gaston Gallimard. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacqueline_Duch%C3%A9</t>
+          <t>Jacqueline_Duché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comme autrice
 Trèfle à quatre feuilles illustré par Jacqueline L. Gaillard, 1955
@@ -555,7 +571,7 @@
 Comme autrice et illustratrice
 Une leçon méritée, texte et couverture de la revue "Mon journal illustré pour les enfants", n°48 du 26 août 1922
 La conquête de Delphine, texte et couverture dans la revue ""Mon journal illustré pour les enfants", n°1 du 7 octobre 1922
-Vieux proverbes pour votre bonne santé, douze compositions de Jacqueline Duché, Laboratoires Lescène, 1933[2]
+Vieux proverbes pour votre bonne santé, douze compositions de Jacqueline Duché, Laboratoires Lescène, 1933
 Babiole et ses géants, 1937
 Bigoudi-Bigouda, 1937
 Les Apprentis de Mme Flan, 1937
